--- a/Renomear/Arquivos_Excluir.xlsx
+++ b/Renomear/Arquivos_Excluir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETOS\Renomear_arquivos\Renomear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertiseinteligencia-my.sharepoint.com/personal/yan_sabarense_expertise_net_br/Documents/Área de Trabalho/Renomear_arquivos/Renomear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59ED219-DBD5-414A-8802-FE5B09E1B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E59ED219-DBD5-414A-8802-FE5B09E1B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C87D8780-453B-4913-8277-391837A4EE3F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nome_Arquivo</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>gama</t>
+  </si>
+  <si>
+    <t>omega</t>
   </si>
 </sst>
 </file>
@@ -361,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -392,6 +395,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Renomear/Arquivos_Excluir.xlsx
+++ b/Renomear/Arquivos_Excluir.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://expertiseinteligencia-my.sharepoint.com/personal/yan_sabarense_expertise_net_br/Documents/Área de Trabalho/Renomear_arquivos/Renomear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Renomear_arquivos\Renomear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E59ED219-DBD5-414A-8802-FE5B09E1B546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C87D8780-453B-4913-8277-391837A4EE3F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8059340D-D90A-4C47-9B4D-454916146C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4992" yWindow="3252" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Nome_Arquivo</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>gama</t>
-  </si>
-  <si>
-    <t>omega</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -395,11 +392,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Renomear/Arquivos_Excluir.xlsx
+++ b/Renomear/Arquivos_Excluir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\Renomear_arquivos\Renomear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8059340D-D90A-4C47-9B4D-454916146C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B05F762-D231-49DB-8508-00F09518C4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4992" yWindow="3252" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome_Arquivo</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>gama</t>
+  </si>
+  <si>
+    <t>texto</t>
+  </si>
+  <si>
+    <t>foto</t>
   </si>
 </sst>
 </file>
@@ -361,35 +367,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
